--- a/世贸悦府家具.xlsx
+++ b/世贸悦府家具.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,12 +205,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +213,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -257,6 +257,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -295,7 +300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -333,7 +344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -372,7 +389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -414,7 +437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="5a71c6e271256709bd86250918e1d25b"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="5a71c6e271256709bd86250918e1d25b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -453,7 +482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="797989be61cef087df66689183211e50"/>
+        <xdr:cNvPr id="8" name="图片 7" descr="797989be61cef087df66689183211e50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -507,6 +542,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="图片 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -545,7 +585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -583,7 +629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -625,7 +677,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -667,7 +725,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -709,7 +773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1000,7 +1070,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,46 +1083,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1099,17 +1169,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
